--- a/sentiment/weekly/20260112-20260116.xlsx
+++ b/sentiment/weekly/20260112-20260116.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\data\project\2026\workday_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\data\project\2026\sentiment\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA1B60D-F142-4586-A6B0-C37DFEDA42A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663F5F06-364B-4BA3-B1E8-E9F033AAB25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1190" yWindow="-10910" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -900,10 +900,10 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
